--- a/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
+++ b/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoCPwEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/bldgs/eocpweu/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59DD87A-6B92-CF4D-91D0-EF0089F00AF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25340" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -21,10 +22,19 @@
     <sheet name="Calculations" sheetId="9" r:id="rId7"/>
     <sheet name="EoCPwEU" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1184,7 +1194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1333,7 +1343,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1422,30 +1432,31 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="6"/>
-    <cellStyle name="Currency 3" xfId="8"/>
+    <cellStyle name="Currency 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="14"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="7"/>
-    <cellStyle name="Percent 3" xfId="9"/>
-    <cellStyle name="Percent 4" xfId="12"/>
-    <cellStyle name="Percent 5" xfId="13"/>
-    <cellStyle name="Percent 5 2" xfId="15"/>
+    <cellStyle name="Percent 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Percent 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1756,30 +1767,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="34" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="59.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="60.42578125" customWidth="1"/>
-    <col min="9" max="9" width="57.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="59.5" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="60.5" customWidth="1"/>
+    <col min="9" max="9" width="57.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="55">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>248</v>
       </c>
@@ -1793,7 +1807,7 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
@@ -1821,7 +1835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="15">
         <v>2015</v>
       </c>
@@ -1835,7 +1849,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1849,7 +1863,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
         <v>19</v>
@@ -1865,10 +1879,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>21</v>
       </c>
@@ -1879,7 +1893,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>82</v>
       </c>
@@ -1890,7 +1904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
         <v>49</v>
       </c>
@@ -1901,7 +1915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="15">
         <v>2015</v>
       </c>
@@ -1912,7 +1926,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>140</v>
       </c>
@@ -1923,7 +1937,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>47</v>
       </c>
@@ -1934,22 +1948,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>96</v>
       </c>
@@ -1963,7 +1977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>91</v>
       </c>
@@ -1977,7 +1991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="15">
         <v>2009</v>
       </c>
@@ -1991,7 +2005,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>93</v>
       </c>
@@ -2005,7 +2019,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>92</v>
       </c>
@@ -2019,7 +2033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>129</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>130</v>
       </c>
@@ -2047,7 +2061,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="15">
         <v>2011</v>
       </c>
@@ -2061,7 +2075,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>143</v>
       </c>
@@ -2075,7 +2089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
         <v>131</v>
       </c>
@@ -2089,32 +2103,32 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="15">
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
       <c r="B37" s="28" t="s">
         <v>38</v>
@@ -2126,61 +2140,61 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>247</v>
       </c>
       <c r="D38" s="40"/>
     </row>
-    <row r="39" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="B39" s="34" t="s">
         <v>296</v>
       </c>
       <c r="D39" s="40"/>
     </row>
-    <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="36">
         <v>2014</v>
       </c>
       <c r="D40" s="40"/>
     </row>
-    <row r="41" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
       <c r="B41" s="34" t="s">
         <v>297</v>
       </c>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34"/>
       <c r="B42" s="13" t="s">
         <v>298</v>
       </c>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
       <c r="B43" s="20" t="s">
         <v>299</v>
       </c>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34"/>
       <c r="B46" s="3" t="s">
         <v>179</v>
@@ -2195,7 +2209,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="18" t="s">
         <v>180</v>
@@ -2210,7 +2224,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
       <c r="B48" s="15">
         <v>2015</v>
@@ -2225,7 +2239,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
       <c r="B49" s="19" t="s">
         <v>188</v>
@@ -2243,7 +2257,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="19" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B50" s="21" t="s">
         <v>181</v>
       </c>
@@ -2257,13 +2271,13 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="21"/>
       <c r="D51" s="21"/>
       <c r="F51" s="21"/>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="B52" s="3" t="s">
         <v>222</v>
@@ -2272,7 +2286,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="34"/>
       <c r="B53" s="18" t="s">
         <v>223</v>
@@ -2281,7 +2295,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34"/>
       <c r="B54" s="15">
         <v>2009</v>
@@ -2290,7 +2304,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34"/>
       <c r="B55" s="13" t="s">
         <v>232</v>
@@ -2299,7 +2313,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
       <c r="B56" s="20" t="s">
         <v>224</v>
@@ -2308,10 +2322,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="34"/>
     </row>
-    <row r="58" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="53" t="s">
         <v>249</v>
       </c>
@@ -2319,7 +2333,7 @@
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
     </row>
-    <row r="59" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
         <v>302</v>
       </c>
@@ -2327,12 +2341,12 @@
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="34" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>303</v>
       </c>
@@ -2340,62 +2354,62 @@
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
     </row>
-    <row r="62" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
         <v>304</v>
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
     </row>
-    <row r="63" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="48" t="s">
         <v>305</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
     </row>
-    <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="34"/>
     </row>
-    <row r="66" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="34" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="52" t="s">
         <v>310</v>
       </c>
       <c r="C69" s="47"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="34" t="s">
         <v>311</v>
       </c>
       <c r="C70" s="47"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="34" t="s">
         <v>312</v>
       </c>
       <c r="C71" s="47"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="34" t="s">
         <v>313</v>
       </c>
@@ -2406,21 +2420,21 @@
     <mergeCell ref="B45:F45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027"/>
-    <hyperlink ref="F15" r:id="rId2" location="%21documentDetail;D=EERE-2014-BT-STD-0048-0029"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="H8" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027"/>
-    <hyperlink ref="B23" r:id="rId8"/>
-    <hyperlink ref="D23" r:id="rId9"/>
-    <hyperlink ref="F23" r:id="rId10"/>
-    <hyperlink ref="H29" r:id="rId11"/>
-    <hyperlink ref="F50" r:id="rId12"/>
-    <hyperlink ref="H50" r:id="rId13"/>
-    <hyperlink ref="D56" r:id="rId14"/>
-    <hyperlink ref="B43" r:id="rId15"/>
+    <hyperlink ref="B15" r:id="rId1" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F15" r:id="rId2" location="%21documentDetail;D=EERE-2014-BT-STD-0048-0029" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D15" r:id="rId7" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H50" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D56" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
@@ -2428,28 +2442,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2475,7 +2489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2504,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2538,7 +2552,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2585,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2618,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2651,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2670,7 +2684,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2703,7 +2717,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +2750,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2769,7 +2783,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2802,7 +2816,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2835,7 +2849,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2868,7 +2882,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +2911,7 @@
         <v>8.9774363898223714E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2926,7 +2940,7 @@
         <v>0.37253960633701394</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2955,7 +2969,7 @@
         <v>0.54056649063850215</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2984,7 +2998,7 @@
         <v>0.87181949111857893</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3013,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -3042,7 +3056,7 @@
         <v>1.5885623510722795E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>0.12668784749801429</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3100,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3129,7 +3143,7 @@
         <v>3.7930168299422258E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3158,7 +3172,7 @@
         <v>7.5860336598844516E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3187,7 +3201,7 @@
         <v>0.55262496860085408</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3216,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3245,7 +3259,7 @@
         <v>7.4944348256245366E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3274,7 +3288,7 @@
         <v>0.11254019292604502</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3303,7 +3317,7 @@
         <v>0.18748454118229038</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -3332,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>3</v>
       </c>
@@ -3361,7 +3375,7 @@
         <v>9.0590547816425948E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3404,7 @@
         <v>0.223997948893257</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>3</v>
       </c>
@@ -3419,7 +3433,7 @@
         <v>0.52764720964020173</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>3</v>
       </c>
@@ -3448,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3491,7 @@
         <v>8.1475879637000481E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
@@ -3506,7 +3520,7 @@
         <v>0.17055405190256329</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>3</v>
       </c>
@@ -3535,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>3</v>
       </c>
@@ -3564,7 +3578,7 @@
         <v>4.4322521650260877E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>3</v>
       </c>
@@ -3593,7 +3607,7 @@
         <v>0.36856543488784899</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3636,7 @@
         <v>0.41035985154106824</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>3</v>
       </c>
@@ -3651,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>3</v>
       </c>
@@ -3680,7 +3694,7 @@
         <v>9.4368214560023256E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
@@ -3709,7 +3723,7 @@
         <v>0.16980466236273431</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>3</v>
       </c>
@@ -3738,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>3</v>
       </c>
@@ -3767,7 +3781,7 @@
         <v>0.32691717006245519</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>3</v>
       </c>
@@ -3796,7 +3810,7 @@
         <v>0.54336029487048221</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>3</v>
       </c>
@@ -3825,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>3</v>
       </c>
@@ -3854,7 +3868,7 @@
         <v>0.48703170028818443</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>3</v>
       </c>
@@ -3883,7 +3897,7 @@
         <v>0.93307716938840857</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>3</v>
       </c>
@@ -3912,7 +3926,7 @@
         <v>1.4306115914185078</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>3</v>
       </c>
@@ -3941,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>3</v>
       </c>
@@ -3970,7 +3984,7 @@
         <v>0.12810045153708172</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>3</v>
       </c>
@@ -3999,7 +4013,7 @@
         <v>0.26993257870971732</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>3</v>
       </c>
@@ -4028,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>3</v>
       </c>
@@ -4057,7 +4071,7 @@
         <v>0.2438341275813059</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>3</v>
       </c>
@@ -4086,7 +4100,7 @@
         <v>0.51383663573279825</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>3</v>
       </c>
@@ -4115,7 +4129,7 @@
         <v>1.1420867820416354</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>3</v>
       </c>
@@ -4144,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>3</v>
       </c>
@@ -4173,7 +4187,7 @@
         <v>0.15029616056590106</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>3</v>
       </c>
@@ -4202,7 +4216,7 @@
         <v>0.27059274726211274</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>3</v>
       </c>
@@ -4231,7 +4245,7 @@
         <v>0.41006519793752927</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>3</v>
       </c>
@@ -4260,7 +4274,7 @@
         <v>0.59935228192781353</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>3</v>
       </c>
@@ -4289,7 +4303,7 @@
         <v>0.98542634337580437</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>3</v>
       </c>
@@ -4318,7 +4332,7 @@
         <v>1.37154301785486</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>3</v>
       </c>
@@ -4347,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>3</v>
       </c>
@@ -4376,7 +4390,7 @@
         <v>0.12147481769236011</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>3</v>
       </c>
@@ -4405,7 +4419,7 @@
         <v>0.26665303618891845</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>3</v>
       </c>
@@ -4434,7 +4448,7 @@
         <v>0.88910243304027803</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>3</v>
       </c>
@@ -4463,7 +4477,7 @@
         <v>1.004007360457984</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>3</v>
       </c>
@@ -4492,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>3</v>
       </c>
@@ -4521,7 +4535,7 @@
         <v>5.6747496923128096E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>3</v>
       </c>
@@ -4550,7 +4564,7 @@
         <v>0.11346173036623092</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>3</v>
       </c>
@@ -4579,7 +4593,7 @@
         <v>0.28360443069553937</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>3</v>
       </c>
@@ -4608,7 +4622,7 @@
         <v>1.3189635099624122</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>3</v>
       </c>
@@ -4637,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>3</v>
       </c>
@@ -4666,7 +4680,7 @@
         <v>0.1620392896241333</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>3</v>
       </c>
@@ -4695,7 +4709,7 @@
         <v>0.25629485464055468</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>3</v>
       </c>
@@ -4724,7 +4738,7 @@
         <v>1.4433006933463082</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>3</v>
       </c>
@@ -4753,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>3</v>
       </c>
@@ -4782,7 +4796,7 @@
         <v>8.5554791472836858E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>3</v>
       </c>
@@ -4811,7 +4825,7 @@
         <v>0.18097973382953764</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>3</v>
       </c>
@@ -4840,7 +4854,7 @@
         <v>0.40548521499939322</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>3</v>
       </c>
@@ -4869,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>3</v>
       </c>
@@ -4898,7 +4912,7 @@
         <v>0.16187953151143336</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>3</v>
       </c>
@@ -4927,7 +4941,7 @@
         <v>0.76724298196690832</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>3</v>
       </c>
@@ -4956,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>3</v>
       </c>
@@ -4985,7 +4999,7 @@
         <v>0.16581138100125442</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>3</v>
       </c>
@@ -5014,7 +5028,7 @@
         <v>0.26213555327479376</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>3</v>
       </c>
@@ -5043,7 +5057,7 @@
         <v>0.48591629604287834</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>3</v>
       </c>
@@ -5072,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>3</v>
       </c>
@@ -5101,7 +5115,7 @@
         <v>0.30760953882341163</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>3</v>
       </c>
@@ -5130,7 +5144,7 @@
         <v>0.90150889572854886</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>3</v>
       </c>
@@ -5159,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>3</v>
       </c>
@@ -5188,7 +5202,7 @@
         <v>7.0976662337118432E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>3</v>
       </c>
@@ -5217,7 +5231,7 @@
         <v>1.4907613022164656E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>3</v>
       </c>
@@ -5246,7 +5260,7 @@
         <v>0.99425985670591199</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>3</v>
       </c>
@@ -5275,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>3</v>
       </c>
@@ -5304,7 +5318,7 @@
         <v>1.0946930903913042E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>3</v>
       </c>
@@ -5340,25 +5354,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5388,7 +5402,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -5422,7 +5436,7 @@
       </c>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5456,7 +5470,7 @@
       </c>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5490,7 +5504,7 @@
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5524,7 +5538,7 @@
       </c>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5558,7 +5572,7 @@
       </c>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5592,7 +5606,7 @@
       </c>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5626,7 +5640,7 @@
       </c>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5660,7 +5674,7 @@
       </c>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -5694,7 +5708,7 @@
       </c>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5728,7 +5742,7 @@
       </c>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5762,7 +5776,7 @@
       </c>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5796,7 +5810,7 @@
       </c>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5830,7 +5844,7 @@
       </c>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5864,7 +5878,7 @@
       </c>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +5912,7 @@
       </c>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5932,7 +5946,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5966,7 +5980,7 @@
       </c>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -6000,7 +6014,7 @@
       </c>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -6034,7 +6048,7 @@
       </c>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -6068,7 +6082,7 @@
       </c>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6102,7 +6116,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -6136,7 +6150,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6170,7 +6184,7 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -6204,7 +6218,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -6238,7 +6252,7 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -6272,7 +6286,7 @@
       </c>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -6306,7 +6320,7 @@
       </c>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -6340,7 +6354,7 @@
       </c>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -6374,7 +6388,7 @@
       </c>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6408,7 +6422,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -6442,7 +6456,7 @@
       </c>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -6476,7 +6490,7 @@
       </c>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6510,7 +6524,7 @@
       </c>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -6544,7 +6558,7 @@
       </c>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -6578,7 +6592,7 @@
       </c>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6612,7 +6626,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -6646,7 +6660,7 @@
       </c>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6680,7 +6694,7 @@
       </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -6714,7 +6728,7 @@
       </c>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -6748,7 +6762,7 @@
       </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -6782,7 +6796,7 @@
       </c>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -6816,7 +6830,7 @@
       </c>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -6850,7 +6864,7 @@
       </c>
       <c r="P44" s="7"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -6884,7 +6898,7 @@
       </c>
       <c r="P45" s="7"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -6918,7 +6932,7 @@
       </c>
       <c r="P46" s="7"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -6952,7 +6966,7 @@
       </c>
       <c r="P47" s="7"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -6986,7 +7000,7 @@
       </c>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -7020,7 +7034,7 @@
       </c>
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -7054,7 +7068,7 @@
       </c>
       <c r="P50" s="7"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -7088,7 +7102,7 @@
       </c>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -7122,7 +7136,7 @@
       </c>
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -7156,7 +7170,7 @@
       </c>
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -7190,7 +7204,7 @@
       </c>
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -7224,7 +7238,7 @@
       </c>
       <c r="P55" s="7"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -7258,7 +7272,7 @@
       </c>
       <c r="P56" s="7"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -7292,7 +7306,7 @@
       </c>
       <c r="P57" s="7"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -7326,7 +7340,7 @@
       </c>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -7360,7 +7374,7 @@
       </c>
       <c r="P59" s="7"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -7394,7 +7408,7 @@
       </c>
       <c r="P60" s="7"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -7428,7 +7442,7 @@
       </c>
       <c r="P61" s="7"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -7462,7 +7476,7 @@
       </c>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -7496,7 +7510,7 @@
       </c>
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -7530,7 +7544,7 @@
       </c>
       <c r="P64" s="7"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -7564,7 +7578,7 @@
       </c>
       <c r="P65" s="7"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -7598,7 +7612,7 @@
       </c>
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -7632,7 +7646,7 @@
       </c>
       <c r="P67" s="7"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -7666,7 +7680,7 @@
       </c>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -7700,7 +7714,7 @@
       </c>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -7734,7 +7748,7 @@
       </c>
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -7768,7 +7782,7 @@
       </c>
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -7802,7 +7816,7 @@
       </c>
       <c r="P72" s="7"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -7836,7 +7850,7 @@
       </c>
       <c r="P73" s="7"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -7870,7 +7884,7 @@
       </c>
       <c r="P74" s="7"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -7904,7 +7918,7 @@
       </c>
       <c r="P75" s="7"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -7938,7 +7952,7 @@
       </c>
       <c r="P76" s="7"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -7972,7 +7986,7 @@
       </c>
       <c r="P77" s="7"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -8006,7 +8020,7 @@
       </c>
       <c r="P78" s="7"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -8040,7 +8054,7 @@
       </c>
       <c r="P79" s="7"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -8074,7 +8088,7 @@
       </c>
       <c r="P80" s="7"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -8108,7 +8122,7 @@
       </c>
       <c r="P81" s="7"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -8142,7 +8156,7 @@
       </c>
       <c r="P82" s="7"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -8176,7 +8190,7 @@
       </c>
       <c r="P83" s="7"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -8210,7 +8224,7 @@
       </c>
       <c r="P84" s="7"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -8244,7 +8258,7 @@
       </c>
       <c r="P85" s="7"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -8278,7 +8292,7 @@
       </c>
       <c r="P86" s="7"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -8312,7 +8326,7 @@
       </c>
       <c r="P87" s="7"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -8346,7 +8360,7 @@
       </c>
       <c r="P88" s="7"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -8380,7 +8394,7 @@
       </c>
       <c r="P89" s="7"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -8414,7 +8428,7 @@
       </c>
       <c r="P90" s="7"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -8448,7 +8462,7 @@
       </c>
       <c r="P91" s="7"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -8482,7 +8496,7 @@
       </c>
       <c r="P92" s="7"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -8516,7 +8530,7 @@
       </c>
       <c r="P93" s="7"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -8550,7 +8564,7 @@
       </c>
       <c r="P94" s="7"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -8584,7 +8598,7 @@
       </c>
       <c r="P95" s="7"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -8618,7 +8632,7 @@
       </c>
       <c r="P96" s="7"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -8652,7 +8666,7 @@
       </c>
       <c r="P97" s="7"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -8686,7 +8700,7 @@
       </c>
       <c r="P98" s="7"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -8720,7 +8734,7 @@
       </c>
       <c r="P99" s="7"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -8754,7 +8768,7 @@
       </c>
       <c r="P100" s="7"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -8788,7 +8802,7 @@
       </c>
       <c r="P101" s="7"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -8822,7 +8836,7 @@
       </c>
       <c r="P102" s="7"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -8856,7 +8870,7 @@
       </c>
       <c r="P103" s="7"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -8890,7 +8904,7 @@
       </c>
       <c r="P104" s="7"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -8924,7 +8938,7 @@
       </c>
       <c r="P105" s="7"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -8958,7 +8972,7 @@
       </c>
       <c r="P106" s="7"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -8992,7 +9006,7 @@
       </c>
       <c r="P107" s="7"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -9026,7 +9040,7 @@
       </c>
       <c r="P108" s="7"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -9060,7 +9074,7 @@
       </c>
       <c r="P109" s="7"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -9094,7 +9108,7 @@
       </c>
       <c r="P110" s="7"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -9128,7 +9142,7 @@
       </c>
       <c r="P111" s="7"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -9162,7 +9176,7 @@
       </c>
       <c r="P112" s="7"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -9196,7 +9210,7 @@
       </c>
       <c r="P113" s="7"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>21</v>
       </c>
@@ -9230,7 +9244,7 @@
       </c>
       <c r="P114" s="7"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>21</v>
       </c>
@@ -9264,7 +9278,7 @@
       </c>
       <c r="P115" s="7"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>21</v>
       </c>
@@ -9298,7 +9312,7 @@
       </c>
       <c r="P116" s="7"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>21</v>
       </c>
@@ -9332,7 +9346,7 @@
       </c>
       <c r="P117" s="7"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>21</v>
       </c>
@@ -9366,7 +9380,7 @@
       </c>
       <c r="P118" s="7"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>21</v>
       </c>
@@ -9400,7 +9414,7 @@
       </c>
       <c r="P119" s="7"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>21</v>
       </c>
@@ -9434,7 +9448,7 @@
       </c>
       <c r="P120" s="7"/>
     </row>
-    <row r="121" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>21</v>
       </c>
@@ -9468,7 +9482,7 @@
       </c>
       <c r="P121" s="7"/>
     </row>
-    <row r="122" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>21</v>
       </c>
@@ -9502,7 +9516,7 @@
       </c>
       <c r="P122" s="7"/>
     </row>
-    <row r="123" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>21</v>
       </c>
@@ -9536,7 +9550,7 @@
       </c>
       <c r="P123" s="7"/>
     </row>
-    <row r="124" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>21</v>
       </c>
@@ -9570,7 +9584,7 @@
       </c>
       <c r="P124" s="7"/>
     </row>
-    <row r="125" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>21</v>
       </c>
@@ -9604,7 +9618,7 @@
       </c>
       <c r="P125" s="7"/>
     </row>
-    <row r="126" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>21</v>
       </c>
@@ -9638,7 +9652,7 @@
       </c>
       <c r="P126" s="7"/>
     </row>
-    <row r="127" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>21</v>
       </c>
@@ -9672,7 +9686,7 @@
       </c>
       <c r="P127" s="7"/>
     </row>
-    <row r="128" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>21</v>
       </c>
@@ -9706,7 +9720,7 @@
       </c>
       <c r="P128" s="7"/>
     </row>
-    <row r="129" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>21</v>
       </c>
@@ -9740,7 +9754,7 @@
       </c>
       <c r="P129" s="7"/>
     </row>
-    <row r="130" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>21</v>
       </c>
@@ -9774,7 +9788,7 @@
       </c>
       <c r="P130" s="7"/>
     </row>
-    <row r="131" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>21</v>
       </c>
@@ -9808,7 +9822,7 @@
       </c>
       <c r="P131" s="7"/>
     </row>
-    <row r="132" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>21</v>
       </c>
@@ -9842,7 +9856,7 @@
       </c>
       <c r="P132" s="7"/>
     </row>
-    <row r="133" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>21</v>
       </c>
@@ -9876,7 +9890,7 @@
       </c>
       <c r="P133" s="7"/>
     </row>
-    <row r="134" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>21</v>
       </c>
@@ -9910,7 +9924,7 @@
       </c>
       <c r="P134" s="7"/>
     </row>
-    <row r="135" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>21</v>
       </c>
@@ -9944,7 +9958,7 @@
       </c>
       <c r="P135" s="7"/>
     </row>
-    <row r="136" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>21</v>
       </c>
@@ -9978,7 +9992,7 @@
       </c>
       <c r="P136" s="7"/>
     </row>
-    <row r="137" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>21</v>
       </c>
@@ -10012,7 +10026,7 @@
       </c>
       <c r="P137" s="7"/>
     </row>
-    <row r="138" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>21</v>
       </c>
@@ -10046,7 +10060,7 @@
       </c>
       <c r="P138" s="7"/>
     </row>
-    <row r="139" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>21</v>
       </c>
@@ -10080,7 +10094,7 @@
       </c>
       <c r="P139" s="7"/>
     </row>
-    <row r="140" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>21</v>
       </c>
@@ -10114,7 +10128,7 @@
       </c>
       <c r="P140" s="7"/>
     </row>
-    <row r="141" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>21</v>
       </c>
@@ -10148,7 +10162,7 @@
       </c>
       <c r="P141" s="7"/>
     </row>
-    <row r="142" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>21</v>
       </c>
@@ -10182,7 +10196,7 @@
       </c>
       <c r="P142" s="7"/>
     </row>
-    <row r="143" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>21</v>
       </c>
@@ -10216,7 +10230,7 @@
       </c>
       <c r="P143" s="7"/>
     </row>
-    <row r="144" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>21</v>
       </c>
@@ -10250,7 +10264,7 @@
       </c>
       <c r="P144" s="7"/>
     </row>
-    <row r="145" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>21</v>
       </c>
@@ -10284,7 +10298,7 @@
       </c>
       <c r="P145" s="7"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>21</v>
       </c>
@@ -10317,7 +10331,7 @@
         <v>0.10887316276537834</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>21</v>
       </c>
@@ -10351,7 +10365,7 @@
         <v>0.22591181273816005</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>21</v>
       </c>
@@ -10385,7 +10399,7 @@
         <v>0.48121937942297222</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>21</v>
       </c>
@@ -10418,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>21</v>
       </c>
@@ -10452,7 +10466,7 @@
         <v>5.4929577464788736E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>21</v>
       </c>
@@ -10486,7 +10500,7 @@
         <v>0.10938967136150235</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>21</v>
       </c>
@@ -10520,7 +10534,7 @@
         <v>0.22582159624413145</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>21</v>
       </c>
@@ -10554,7 +10568,7 @@
         <v>0.47934272300469483</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C154" s="13"/>
     </row>
   </sheetData>
@@ -10563,23 +10577,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -10613,7 +10627,7 @@
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
@@ -10650,7 +10664,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>88</v>
       </c>
@@ -10687,7 +10701,7 @@
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
     </row>
-    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>88</v>
       </c>
@@ -10724,7 +10738,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>88</v>
       </c>
@@ -10761,7 +10775,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>88</v>
       </c>
@@ -10798,7 +10812,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>88</v>
       </c>
@@ -10835,7 +10849,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>88</v>
       </c>
@@ -10872,7 +10886,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -10909,7 +10923,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>88</v>
       </c>
@@ -10946,7 +10960,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>88</v>
       </c>
@@ -10983,7 +10997,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>88</v>
       </c>
@@ -11020,7 +11034,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>88</v>
       </c>
@@ -11057,7 +11071,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
@@ -11094,7 +11108,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>88</v>
       </c>
@@ -11131,7 +11145,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
@@ -11168,7 +11182,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>88</v>
       </c>
@@ -11200,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>88</v>
       </c>
@@ -11232,7 +11246,7 @@
         <v>1.0228166797797011E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>88</v>
       </c>
@@ -11264,7 +11278,7 @@
         <v>1.8882769472856019E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>88</v>
       </c>
@@ -11296,7 +11310,7 @@
         <v>3.6978756884343038E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>88</v>
       </c>
@@ -11328,7 +11342,7 @@
         <v>2.8324154209284028E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>88</v>
       </c>
@@ -11360,7 +11374,7 @@
         <v>4.7993705743509051E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
@@ -11392,7 +11406,7 @@
         <v>0.13532651455546812</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>88</v>
       </c>
@@ -11424,7 +11438,7 @@
         <v>0.14162077104642015</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>88</v>
       </c>
@@ -11456,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>88</v>
       </c>
@@ -11488,7 +11502,7 @@
         <v>4.0935672514619881E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>88</v>
       </c>
@@ -11520,7 +11534,7 @@
         <v>0.12573099415204678</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>88</v>
       </c>
@@ -11552,7 +11566,7 @@
         <v>0.44152046783625731</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>88</v>
       </c>
@@ -11584,7 +11598,7 @@
         <v>0.54970760233918126</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
@@ -11616,7 +11630,7 @@
         <v>1.3757309941520468</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>88</v>
       </c>
@@ -11648,7 +11662,7 @@
         <v>1.5058479532163742</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>88</v>
       </c>
@@ -11680,7 +11694,7 @@
         <v>1.7251461988304093</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>88</v>
       </c>
@@ -11712,7 +11726,7 @@
         <v>2.0146198830409356</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -11744,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>88</v>
       </c>
@@ -11776,7 +11790,7 @@
         <v>2.2099447513812154E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>88</v>
       </c>
@@ -11808,7 +11822,7 @@
         <v>3.6832412523020261E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>88</v>
       </c>
@@ -11840,7 +11854,7 @@
         <v>0.14917127071823205</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>88</v>
       </c>
@@ -11872,7 +11886,7 @@
         <v>0.2283609576427256</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -11904,7 +11918,7 @@
         <v>0.39779005524861877</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>88</v>
       </c>
@@ -11936,7 +11950,7 @@
         <v>0.64272559852670352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -11968,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -12000,7 +12014,7 @@
         <v>2.1164021164021165E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>88</v>
       </c>
@@ -12032,7 +12046,7 @@
         <v>4.2328042328042331E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>88</v>
       </c>
@@ -12064,7 +12078,7 @@
         <v>1.0582010582010581E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>88</v>
       </c>
@@ -12096,7 +12110,7 @@
         <v>7.9365079365079361E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>88</v>
       </c>
@@ -12128,7 +12142,7 @@
         <v>0.19259259259259259</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>88</v>
       </c>
@@ -12160,7 +12174,7 @@
         <v>0.35026455026455028</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>88</v>
       </c>
@@ -12192,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
@@ -12224,7 +12238,7 @@
         <v>2.6041666666666665E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>88</v>
       </c>
@@ -12256,7 +12270,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>88</v>
       </c>
@@ -12288,7 +12302,7 @@
         <v>2.34375E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>88</v>
       </c>
@@ -12320,7 +12334,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>88</v>
       </c>
@@ -12352,7 +12366,7 @@
         <v>0.20225694444444445</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>88</v>
       </c>
@@ -12384,7 +12398,7 @@
         <v>0.2986111111111111</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>88</v>
       </c>
@@ -12416,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>88</v>
       </c>
@@ -12448,7 +12462,7 @@
         <v>1.9642857142857142E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>88</v>
       </c>
@@ -12480,7 +12494,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>88</v>
       </c>
@@ -12512,7 +12526,7 @@
         <v>9.1071428571428567E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>88</v>
       </c>
@@ -12544,7 +12558,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>88</v>
       </c>
@@ -12576,7 +12590,7 @@
         <v>0.19107142857142856</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>88</v>
       </c>
@@ -12608,7 +12622,7 @@
         <v>0.29821428571428571</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>88</v>
       </c>
@@ -12640,7 +12654,7 @@
         <v>0.44642857142857145</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>88</v>
       </c>
@@ -12672,7 +12686,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>88</v>
       </c>
@@ -12704,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>88</v>
       </c>
@@ -12736,7 +12750,7 @@
         <v>1.7199017199017199E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>88</v>
       </c>
@@ -12768,7 +12782,7 @@
         <v>4.1769041769041768E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>88</v>
       </c>
@@ -12800,7 +12814,7 @@
         <v>7.125307125307126E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>88</v>
       </c>
@@ -12832,7 +12846,7 @@
         <v>0.18673218673218672</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>88</v>
       </c>
@@ -12864,7 +12878,7 @@
         <v>0.23832923832923833</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>88</v>
       </c>
@@ -12896,7 +12910,7 @@
         <v>0.3882063882063882</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -12928,7 +12942,7 @@
         <v>0.68796068796068799</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>88</v>
       </c>
@@ -12960,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>88</v>
       </c>
@@ -12992,7 +13006,7 @@
         <v>3.4246575342465752E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>88</v>
       </c>
@@ -13024,7 +13038,7 @@
         <v>6.8493150684931503E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>88</v>
       </c>
@@ -13056,7 +13070,7 @@
         <v>0.1095890410958904</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>88</v>
       </c>
@@ -13088,7 +13102,7 @@
         <v>0.19178082191780821</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>88</v>
       </c>
@@ -13120,7 +13134,7 @@
         <v>0.26027397260273971</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>88</v>
       </c>
@@ -13152,7 +13166,7 @@
         <v>0.45205479452054792</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>88</v>
       </c>
@@ -13184,7 +13198,7 @@
         <v>0.51369863013698636</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>88</v>
       </c>
@@ -13216,7 +13230,7 @@
         <v>0.74657534246575341</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>88</v>
       </c>
@@ -13248,7 +13262,7 @@
         <v>0.87671232876712324</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>88</v>
       </c>
@@ -13280,7 +13294,7 @@
         <v>1.3356164383561644</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>88</v>
       </c>
@@ -13312,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>88</v>
       </c>
@@ -13344,7 +13358,7 @@
         <v>3.4653465346534656E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>88</v>
       </c>
@@ -13376,7 +13390,7 @@
         <v>0.10396039603960396</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>88</v>
       </c>
@@ -13408,7 +13422,7 @@
         <v>0.32673267326732675</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>88</v>
       </c>
@@ -13440,7 +13454,7 @@
         <v>0.38118811881188119</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>88</v>
       </c>
@@ -13472,7 +13486,7 @@
         <v>0.54455445544554459</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>88</v>
       </c>
@@ -13504,7 +13518,7 @@
         <v>0.58415841584158412</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>88</v>
       </c>
@@ -13536,7 +13550,7 @@
         <v>0.97524752475247523</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>88</v>
       </c>
@@ -13568,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>88</v>
       </c>
@@ -13600,7 +13614,7 @@
         <v>1.4970059880239522E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>88</v>
       </c>
@@ -13632,7 +13646,7 @@
         <v>4.2771599657827203E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>88</v>
       </c>
@@ -13664,7 +13678,7 @@
         <v>3.2078699743370402E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>88</v>
       </c>
@@ -13696,7 +13710,7 @@
         <v>7.2925577416595375E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>88</v>
       </c>
@@ -13728,7 +13742,7 @@
         <v>0.10393498716852011</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>88</v>
       </c>
@@ -13760,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>88</v>
       </c>
@@ -13792,7 +13806,7 @@
         <v>7.4266617155588561E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>88</v>
       </c>
@@ -13824,7 +13838,7 @@
         <v>2.7849981433345711E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>88</v>
       </c>
@@ -13856,7 +13870,7 @@
         <v>9.0976606015595995E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>88</v>
       </c>
@@ -13888,7 +13902,7 @@
         <v>4.1032305978462684E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>88</v>
       </c>
@@ -13920,7 +13934,7 @@
         <v>5.941329372447085E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>88</v>
       </c>
@@ -13952,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>88</v>
       </c>
@@ -13984,7 +13998,7 @@
         <v>1.9018638265500189E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>88</v>
       </c>
@@ -14016,7 +14030,7 @@
         <v>7.6074553062000757E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>88</v>
       </c>
@@ -14048,7 +14062,7 @@
         <v>2.4217066058070242E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>88</v>
       </c>
@@ -14080,7 +14094,7 @@
         <v>3.9305185748700393E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>88</v>
       </c>
@@ -14112,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>88</v>
       </c>
@@ -14144,7 +14158,7 @@
         <v>3.8786219484371436E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>88</v>
       </c>
@@ -14176,7 +14190,7 @@
         <v>7.30093543235227E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>88</v>
       </c>
@@ -14208,7 +14222,7 @@
         <v>2.8747433264887063E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>88</v>
       </c>
@@ -14240,7 +14254,7 @@
         <v>6.2514259639516317E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>88</v>
       </c>
@@ -14272,7 +14286,7 @@
         <v>8.8295687885010271E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -14304,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>88</v>
       </c>
@@ -14336,7 +14350,7 @@
         <v>3.903903903903904E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>88</v>
       </c>
@@ -14368,7 +14382,7 @@
         <v>0.14714714714714713</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>88</v>
       </c>
@@ -14400,7 +14414,7 @@
         <v>0.3003003003003003</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>88</v>
       </c>
@@ -14432,7 +14446,7 @@
         <v>0.3003003003003003</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>88</v>
       </c>
@@ -14464,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>88</v>
       </c>
@@ -14496,7 +14510,7 @@
         <v>3.2573289902280131E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>88</v>
       </c>
@@ -14528,7 +14542,7 @@
         <v>9.1205211726384364E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>88</v>
       </c>
@@ -14560,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>88</v>
       </c>
@@ -14592,7 +14606,7 @@
         <v>9.6618357487922701E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>88</v>
       </c>
@@ -14624,7 +14638,7 @@
         <v>2.6570048309178744E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>88</v>
       </c>
@@ -14656,7 +14670,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>88</v>
       </c>
@@ -14688,7 +14702,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>88</v>
       </c>
@@ -14720,7 +14734,7 @@
         <v>4.5893719806763288E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>88</v>
       </c>
@@ -14752,7 +14766,7 @@
         <v>8.2125603864734303E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>88</v>
       </c>
@@ -14784,7 +14798,7 @@
         <v>0.19806763285024154</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>88</v>
       </c>
@@ -14816,7 +14830,7 @@
         <v>0.22705314009661837</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>88</v>
       </c>
@@ -14848,7 +14862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>88</v>
       </c>
@@ -14880,7 +14894,7 @@
         <v>5.7803468208092483E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>88</v>
       </c>
@@ -14912,7 +14926,7 @@
         <v>2.3121387283236996E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>88</v>
       </c>
@@ -14944,7 +14958,7 @@
         <v>4.6242774566473991E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>88</v>
       </c>
@@ -14976,7 +14990,7 @@
         <v>1.0404624277456647E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>88</v>
       </c>
@@ -15008,7 +15022,7 @@
         <v>2.6589595375722544E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>88</v>
       </c>
@@ -15040,7 +15054,7 @@
         <v>6.358381502890173E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>88</v>
       </c>
@@ -15072,7 +15086,7 @@
         <v>8.4393063583815028E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>88</v>
       </c>
@@ -15104,7 +15118,7 @@
         <v>0.11445086705202312</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>88</v>
       </c>
@@ -15136,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>88</v>
       </c>
@@ -15168,7 +15182,7 @@
         <v>1.6706443914081145E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>88</v>
       </c>
@@ -15200,7 +15214,7 @@
         <v>0.14558472553699284</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>88</v>
       </c>
@@ -15232,7 +15246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>88</v>
       </c>
@@ -15264,7 +15278,7 @@
         <v>4.6457607433217189E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>88</v>
       </c>
@@ -15296,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>88</v>
       </c>
@@ -15328,7 +15342,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>88</v>
       </c>
@@ -15360,7 +15374,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>88</v>
       </c>
@@ -15392,7 +15406,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>88</v>
       </c>
@@ -15424,7 +15438,7 @@
         <v>0.20277777777777778</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>88</v>
       </c>
@@ -15456,7 +15470,7 @@
         <v>0.35555555555555557</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>88</v>
       </c>
@@ -15488,7 +15502,7 @@
         <v>1.1222222222222222</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>88</v>
       </c>
@@ -15520,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>88</v>
       </c>
@@ -15552,7 +15566,7 @@
         <v>2.6595744680851063E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>88</v>
       </c>
@@ -15584,7 +15598,7 @@
         <v>2.6595744680851063E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>88</v>
       </c>
@@ -15616,7 +15630,7 @@
         <v>8.2446808510638292E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>88</v>
       </c>
@@ -15648,7 +15662,7 @@
         <v>0.23936170212765959</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>88</v>
       </c>
@@ -15680,7 +15694,7 @@
         <v>0.41755319148936171</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>88</v>
       </c>
@@ -15712,7 +15726,7 @@
         <v>1.0239361702127661</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>88</v>
       </c>
@@ -15744,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>88</v>
       </c>
@@ -15776,7 +15790,7 @@
         <v>2.6595744680851063E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>88</v>
       </c>
@@ -15808,7 +15822,7 @@
         <v>2.6595744680851063E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>88</v>
       </c>
@@ -15840,7 +15854,7 @@
         <v>8.2446808510638292E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>88</v>
       </c>
@@ -15872,7 +15886,7 @@
         <v>0.23936170212765959</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>88</v>
       </c>
@@ -15904,7 +15918,7 @@
         <v>0.41755319148936171</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>88</v>
       </c>
@@ -15936,7 +15950,7 @@
         <v>1.0239361702127661</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>88</v>
       </c>
@@ -15968,7 +15982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>88</v>
       </c>
@@ -16000,7 +16014,7 @@
         <v>2.4630541871921183E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>88</v>
       </c>
@@ -16032,7 +16046,7 @@
         <v>2.4630541871921183E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>88</v>
       </c>
@@ -16064,7 +16078,7 @@
         <v>3.2019704433497539E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>88</v>
       </c>
@@ -16096,7 +16110,7 @@
         <v>0.25615763546798032</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>88</v>
       </c>
@@ -16128,7 +16142,7 @@
         <v>0.39162561576354682</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>88</v>
       </c>
@@ -16160,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>88</v>
       </c>
@@ -16192,7 +16206,7 @@
         <v>1.001001001001001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>88</v>
       </c>
@@ -16224,7 +16238,7 @@
         <v>1.001001001001001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>88</v>
       </c>
@@ -16256,7 +16270,7 @@
         <v>3.8038038038038041E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>88</v>
       </c>
@@ -16288,7 +16302,7 @@
         <v>8.3083083083083084E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>88</v>
       </c>
@@ -16320,7 +16334,7 @@
         <v>0.34934934934934936</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>88</v>
       </c>
@@ -16352,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>88</v>
       </c>
@@ -16384,7 +16398,7 @@
         <v>1.389854065323141E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>88</v>
       </c>
@@ -16416,7 +16430,7 @@
         <v>2.7797081306462821E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>88</v>
       </c>
@@ -16448,7 +16462,7 @@
         <v>2.7797081306462821E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>88</v>
       </c>
@@ -16480,7 +16494,7 @@
         <v>3.1966643502432245E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>88</v>
       </c>
@@ -16512,7 +16526,7 @@
         <v>0.29812369701181374</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>88</v>
       </c>
@@ -16544,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>88</v>
       </c>
@@ -16576,7 +16590,7 @@
         <v>2.4960442156404016E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>88</v>
       </c>
@@ -16608,7 +16622,7 @@
         <v>8.4464353368545846E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>88</v>
       </c>
@@ -16640,7 +16654,7 @@
         <v>2.4158142229948144E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>88</v>
       </c>
@@ -16672,7 +16686,7 @@
         <v>3.1311983240846004E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>88</v>
       </c>
@@ -16704,7 +16718,7 @@
         <v>0.10543558200173833</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>88</v>
       </c>
@@ -16736,7 +16750,7 @@
         <v>0.20271444808450889</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>88</v>
       </c>
@@ -16768,7 +16782,7 @@
         <v>0.21564039134407537</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>88</v>
       </c>
@@ -16800,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>88</v>
       </c>
@@ -16832,7 +16846,7 @@
         <v>2.3578947368421148E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>88</v>
       </c>
@@ -16864,7 +16878,7 @@
         <v>7.9789473684210958E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>88</v>
       </c>
@@ -16896,7 +16910,7 @@
         <v>2.2821052631578895E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>88</v>
       </c>
@@ -16928,7 +16942,7 @@
         <v>2.9578947368421076E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>88</v>
       </c>
@@ -16960,7 +16974,7 @@
         <v>9.9599999999999883E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>88</v>
       </c>
@@ -16992,7 +17006,7 @@
         <v>0.19149473684210533</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>88</v>
       </c>
@@ -17024,7 +17038,7 @@
         <v>0.20370526315789472</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>88</v>
       </c>
@@ -17056,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>88</v>
       </c>
@@ -17088,7 +17102,7 @@
         <v>2.2742040285900025E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>88</v>
       </c>
@@ -17120,7 +17134,7 @@
         <v>6.9789636127355434E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>88</v>
       </c>
@@ -17152,7 +17166,7 @@
         <v>0.15836176088369072</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>88</v>
       </c>
@@ -17184,7 +17198,7 @@
         <v>0.1728598115659519</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>88</v>
       </c>
@@ -17216,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>88</v>
       </c>
@@ -17248,7 +17262,7 @@
         <v>2.1783132530120396E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>88</v>
       </c>
@@ -17280,7 +17294,7 @@
         <v>6.6255421686747001E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>88</v>
       </c>
@@ -17312,7 +17326,7 @@
         <v>0.15036144578313254</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>88</v>
       </c>
@@ -17344,7 +17358,7 @@
         <v>0.16410602409638553</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>88</v>
       </c>
@@ -17376,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>88</v>
       </c>
@@ -17408,7 +17422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>88</v>
       </c>
@@ -17440,7 +17454,7 @@
         <v>2.2682625513903328E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>88</v>
       </c>
@@ -17472,7 +17486,7 @@
         <v>2.0171334832006879E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>88</v>
       </c>
@@ -17504,7 +17518,7 @@
         <v>3.4347975778196399E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>88</v>
       </c>
@@ -17536,7 +17550,7 @@
         <v>4.0788221236608115E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>88</v>
       </c>
@@ -17568,7 +17582,7 @@
         <v>9.7839074872916668E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>88</v>
       </c>
@@ -17600,7 +17614,7 @@
         <v>0.10974745326771586</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>88</v>
       </c>
@@ -17632,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>88</v>
       </c>
@@ -17664,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>88</v>
       </c>
@@ -17696,7 +17710,7 @@
         <v>2.1352723915051045E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>88</v>
       </c>
@@ -17728,7 +17742,7 @@
         <v>1.9159741458910286E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>88</v>
       </c>
@@ -17760,7 +17774,7 @@
         <v>3.2625423207140507E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>88</v>
       </c>
@@ -17792,7 +17806,7 @@
         <v>3.8742690058479502E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>88</v>
       </c>
@@ -17824,7 +17838,7 @@
         <v>9.2932440751000198E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>88</v>
       </c>
@@ -17856,7 +17870,7 @@
         <v>0.10424361341951358</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>88</v>
       </c>
@@ -17888,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>88</v>
       </c>
@@ -17920,7 +17934,7 @@
         <v>1.8408941485864639E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>88</v>
       </c>
@@ -17952,7 +17966,7 @@
         <v>1.6370808678501048E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>88</v>
       </c>
@@ -17984,7 +17998,7 @@
         <v>6.2639710716633823E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>88</v>
       </c>
@@ -18016,7 +18030,7 @@
         <v>7.4260355029585903E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>88</v>
       </c>
@@ -18048,7 +18062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>88</v>
       </c>
@@ -18080,7 +18094,7 @@
         <v>1.7653085349515398E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>88</v>
       </c>
@@ -18112,7 +18126,7 @@
         <v>1.5698636614390294E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>88</v>
       </c>
@@ -18144,7 +18158,7 @@
         <v>6.005201355504753E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>88</v>
       </c>
@@ -18176,7 +18190,7 @@
         <v>7.1195523681929163E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>88</v>
       </c>
@@ -18208,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>88</v>
       </c>
@@ -18240,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>88</v>
       </c>
@@ -18272,7 +18286,7 @@
         <v>6.3745019920318724E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>88</v>
       </c>
@@ -18304,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>88</v>
       </c>
@@ -18336,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>88</v>
       </c>
@@ -18368,7 +18382,7 @@
         <v>6.2814070351758795E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>88</v>
       </c>
@@ -18400,7 +18414,7 @@
         <v>1.9472361809045227E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>88</v>
       </c>
@@ -18439,7 +18453,7 @@
       <c r="O243" s="13"/>
       <c r="P243" s="13"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>88</v>
       </c>
@@ -18478,7 +18492,7 @@
       <c r="O244" s="13"/>
       <c r="P244" s="13"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>88</v>
       </c>
@@ -18517,7 +18531,7 @@
       <c r="O245" s="13"/>
       <c r="P245" s="13"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>88</v>
       </c>
@@ -18556,7 +18570,7 @@
       <c r="O246" s="13"/>
       <c r="P246" s="13"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>88</v>
       </c>
@@ -18595,7 +18609,7 @@
       <c r="O247" s="13"/>
       <c r="P247" s="13"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>88</v>
       </c>
@@ -18634,7 +18648,7 @@
       <c r="O248" s="13"/>
       <c r="P248" s="13"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>88</v>
       </c>
@@ -18673,7 +18687,7 @@
       <c r="O249" s="13"/>
       <c r="P249" s="13"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>88</v>
       </c>
@@ -18712,7 +18726,7 @@
       <c r="O250" s="13"/>
       <c r="P250" s="13"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>88</v>
       </c>
@@ -18751,7 +18765,7 @@
       <c r="O251" s="13"/>
       <c r="P251" s="13"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
         <v>88</v>
       </c>
@@ -18790,7 +18804,7 @@
       <c r="O252" s="13"/>
       <c r="P252" s="13"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
         <v>88</v>
       </c>
@@ -18829,7 +18843,7 @@
       <c r="O253" s="13"/>
       <c r="P253" s="13"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>88</v>
       </c>
@@ -18868,7 +18882,7 @@
       <c r="O254" s="13"/>
       <c r="P254" s="13"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>88</v>
       </c>
@@ -18907,7 +18921,7 @@
       <c r="O255" s="13"/>
       <c r="P255" s="13"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>88</v>
       </c>
@@ -18946,7 +18960,7 @@
       <c r="O256" s="13"/>
       <c r="P256" s="13"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>88</v>
       </c>
@@ -18985,7 +18999,7 @@
       <c r="O257" s="13"/>
       <c r="P257" s="13"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
         <v>88</v>
       </c>
@@ -19024,7 +19038,7 @@
       <c r="O258" s="13"/>
       <c r="P258" s="13"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
         <v>88</v>
       </c>
@@ -19063,7 +19077,7 @@
       <c r="O259" s="13"/>
       <c r="P259" s="13"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
         <v>88</v>
       </c>
@@ -19102,7 +19116,7 @@
       <c r="O260" s="13"/>
       <c r="P260" s="13"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
         <v>88</v>
       </c>
@@ -19141,7 +19155,7 @@
       <c r="O261" s="13"/>
       <c r="P261" s="13"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
         <v>88</v>
       </c>
@@ -19180,7 +19194,7 @@
       <c r="O262" s="13"/>
       <c r="P262" s="13"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
         <v>88</v>
       </c>
@@ -19219,7 +19233,7 @@
       <c r="O263" s="13"/>
       <c r="P263" s="13"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>88</v>
       </c>
@@ -19258,7 +19272,7 @@
       <c r="O264" s="13"/>
       <c r="P264" s="13"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>88</v>
       </c>
@@ -19297,7 +19311,7 @@
       <c r="O265" s="13"/>
       <c r="P265" s="13"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>88</v>
       </c>
@@ -19336,7 +19350,7 @@
       <c r="O266" s="13"/>
       <c r="P266" s="13"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>88</v>
       </c>
@@ -19375,7 +19389,7 @@
       <c r="O267" s="13"/>
       <c r="P267" s="13"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>88</v>
       </c>
@@ -19414,7 +19428,7 @@
       <c r="O268" s="13"/>
       <c r="P268" s="13"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>88</v>
       </c>
@@ -19452,7 +19466,7 @@
       <c r="N269" s="13"/>
       <c r="O269" s="13"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
         <v>88</v>
       </c>
@@ -19490,7 +19504,7 @@
       <c r="N270" s="13"/>
       <c r="O270" s="13"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
         <v>88</v>
       </c>
@@ -19522,7 +19536,7 @@
         <v>0.26668211306765521</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
         <v>88</v>
       </c>
@@ -19554,7 +19568,7 @@
         <v>0.28290083410565336</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
         <v>88</v>
       </c>
@@ -19586,7 +19600,7 @@
         <v>0.30305838739573682</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="13" t="s">
         <v>88</v>
       </c>
@@ -19618,7 +19632,7 @@
         <v>0.11887928777166798</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
         <v>88</v>
       </c>
@@ -19650,7 +19664,7 @@
         <v>0.13563760146635245</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
         <v>88</v>
       </c>
@@ -19682,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
         <v>88</v>
       </c>
@@ -19714,7 +19728,7 @@
         <v>7.8554595443833461E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
         <v>88</v>
       </c>
@@ -19746,7 +19760,7 @@
         <v>1.7020162346163919E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
         <v>88</v>
       </c>
@@ -19778,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
         <v>88</v>
       </c>
@@ -19810,7 +19824,7 @@
         <v>7.9896907216494839E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
         <v>88</v>
       </c>
@@ -19842,7 +19856,7 @@
         <v>0.37181226261530115</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>88</v>
       </c>
@@ -19874,7 +19888,7 @@
         <v>0.4152197504069452</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
         <v>88</v>
       </c>
@@ -19912,31 +19926,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="40" customWidth="1"/>
     <col min="5" max="5" width="10" style="40" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="40" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="40" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.5703125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5" style="40" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="40" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
@@ -19989,7 +20003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>38</v>
       </c>
@@ -20046,7 +20060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>38</v>
       </c>
@@ -20103,7 +20117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>38</v>
       </c>
@@ -20160,7 +20174,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>38</v>
       </c>
@@ -20211,7 +20225,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>38</v>
       </c>
@@ -20262,7 +20276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>38</v>
       </c>
@@ -20313,7 +20327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -20370,7 +20384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>38</v>
       </c>
@@ -20427,7 +20441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>38</v>
       </c>
@@ -20484,7 +20498,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>38</v>
       </c>
@@ -20535,7 +20549,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>38</v>
       </c>
@@ -20586,7 +20600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>38</v>
       </c>
@@ -20637,7 +20651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -20694,7 +20708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>38</v>
       </c>
@@ -20751,7 +20765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>38</v>
       </c>
@@ -20808,7 +20822,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>38</v>
       </c>
@@ -20865,7 +20879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>38</v>
       </c>
@@ -20922,7 +20936,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>38</v>
       </c>
@@ -20979,7 +20993,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>38</v>
       </c>
@@ -21030,7 +21044,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>38</v>
       </c>
@@ -21081,7 +21095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -21132,7 +21146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>38</v>
       </c>
@@ -21182,7 +21196,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>38</v>
       </c>
@@ -21232,7 +21246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -21282,7 +21296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>38</v>
       </c>
@@ -21339,7 +21353,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>38</v>
       </c>
@@ -21396,7 +21410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -21453,7 +21467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>38</v>
       </c>
@@ -21503,7 +21517,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
         <v>38</v>
       </c>
@@ -21553,7 +21567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -21604,7 +21618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>38</v>
       </c>
@@ -21661,7 +21675,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>38</v>
       </c>
@@ -21718,7 +21732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
         <v>38</v>
       </c>
@@ -21769,7 +21783,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
         <v>38</v>
       </c>
@@ -21819,7 +21833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
         <v>38</v>
       </c>
@@ -21869,7 +21883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>38</v>
       </c>
@@ -21926,7 +21940,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>38</v>
       </c>
@@ -21983,7 +21997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>38</v>
       </c>
@@ -22040,7 +22054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>38</v>
       </c>
@@ -22097,7 +22111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>38</v>
       </c>
@@ -22154,7 +22168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>38</v>
       </c>
@@ -22211,7 +22225,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>38</v>
       </c>
@@ -22261,7 +22275,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>38</v>
       </c>
@@ -22311,7 +22325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>38</v>
       </c>
@@ -22361,7 +22375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
         <v>38</v>
       </c>
@@ -22418,7 +22432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
         <v>38</v>
       </c>
@@ -22475,7 +22489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="40" t="s">
         <v>38</v>
       </c>
@@ -22532,7 +22546,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="40" t="s">
         <v>38</v>
       </c>
@@ -22589,7 +22603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="40" t="s">
         <v>38</v>
       </c>
@@ -22646,7 +22660,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
         <v>38</v>
       </c>
@@ -22703,7 +22717,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="s">
         <v>38</v>
       </c>
@@ -22753,7 +22767,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="40" t="s">
         <v>38</v>
       </c>
@@ -22803,7 +22817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
         <v>38</v>
       </c>
@@ -22853,7 +22867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="40" t="s">
         <v>38</v>
       </c>
@@ -22903,7 +22917,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
         <v>38</v>
       </c>
@@ -22953,7 +22967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="40" t="s">
         <v>38</v>
       </c>
@@ -23003,7 +23017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="40" t="s">
         <v>38</v>
       </c>
@@ -23060,7 +23074,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="40" t="s">
         <v>38</v>
       </c>
@@ -23117,7 +23131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="40" t="s">
         <v>38</v>
       </c>
@@ -23174,7 +23188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
         <v>38</v>
       </c>
@@ -23224,7 +23238,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="40" t="s">
         <v>38</v>
       </c>
@@ -23274,7 +23288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
         <v>38</v>
       </c>
@@ -23324,7 +23338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="40" t="s">
         <v>38</v>
       </c>
@@ -23381,7 +23395,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="40" t="s">
         <v>38</v>
       </c>
@@ -23438,7 +23452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
         <v>38</v>
       </c>
@@ -23488,7 +23502,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
         <v>38</v>
       </c>
@@ -23538,7 +23552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="40" t="s">
         <v>38</v>
       </c>
@@ -23588,7 +23602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="40" t="s">
         <v>38</v>
       </c>
@@ -23645,7 +23659,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="40" t="s">
         <v>38</v>
       </c>
@@ -23702,7 +23716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="40" t="s">
         <v>38</v>
       </c>
@@ -23759,7 +23773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="40" t="s">
         <v>38</v>
       </c>
@@ -23817,7 +23831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="40" t="s">
         <v>38</v>
       </c>
@@ -23868,7 +23882,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="40" t="s">
         <v>38</v>
       </c>
@@ -23919,7 +23933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="40" t="s">
         <v>38</v>
       </c>
@@ -23970,7 +23984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="40" t="s">
         <v>38</v>
       </c>
@@ -24028,7 +24042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="40" t="s">
         <v>38</v>
       </c>
@@ -24086,7 +24100,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="40" t="s">
         <v>38</v>
       </c>
@@ -24144,7 +24158,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="40" t="s">
         <v>38</v>
       </c>
@@ -24202,18 +24216,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="40"/>
       <c r="B80" s="40"/>
       <c r="C80" s="40"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="40"/>
       <c r="B81" s="40"/>
       <c r="C81" s="40"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Q79">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q79">
     <sortCondition descending="1" ref="B2:B79"/>
     <sortCondition ref="C2:C79"/>
     <sortCondition ref="D2:D79"/>
@@ -24224,25 +24238,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R270"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -24276,7 +24290,7 @@
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
     </row>
-    <row r="2" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>178</v>
       </c>
@@ -24313,7 +24327,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>178</v>
       </c>
@@ -24350,7 +24364,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>178</v>
       </c>
@@ -24387,7 +24401,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>178</v>
       </c>
@@ -24424,7 +24438,7 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>178</v>
       </c>
@@ -24461,7 +24475,7 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>178</v>
       </c>
@@ -24498,7 +24512,7 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>178</v>
       </c>
@@ -24535,7 +24549,7 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>178</v>
       </c>
@@ -24572,7 +24586,7 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>178</v>
       </c>
@@ -24609,7 +24623,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>178</v>
       </c>
@@ -24646,7 +24660,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>178</v>
       </c>
@@ -24683,7 +24697,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>178</v>
       </c>
@@ -24715,7 +24729,7 @@
         <v>8.0874316939890709E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>178</v>
       </c>
@@ -24747,7 +24761,7 @@
         <v>0.10163934426229508</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>178</v>
       </c>
@@ -24779,7 +24793,7 @@
         <v>0.2284153005464481</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>178</v>
       </c>
@@ -24811,7 +24825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>178</v>
       </c>
@@ -24843,7 +24857,7 @@
         <v>2.4680073126142597E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>178</v>
       </c>
@@ -24875,7 +24889,7 @@
         <v>0.20840950639853748</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>178</v>
       </c>
@@ -24907,7 +24921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>178</v>
       </c>
@@ -24939,7 +24953,7 @@
         <v>7.6238881829733167E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>178</v>
       </c>
@@ -24971,7 +24985,7 @@
         <v>4.4472681067344345E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>178</v>
       </c>
@@ -25003,7 +25017,7 @@
         <v>0.19250317662007624</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>178</v>
       </c>
@@ -25035,7 +25049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>178</v>
       </c>
@@ -25067,7 +25081,7 @@
         <v>1.5337423312883436E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>178</v>
       </c>
@@ -25099,7 +25113,7 @@
         <v>3.4509202453987732E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>178</v>
       </c>
@@ -25131,7 +25145,7 @@
         <v>7.9754601226993863E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>178</v>
       </c>
@@ -25163,7 +25177,7 @@
         <v>0.17868098159509202</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>178</v>
       </c>
@@ -25195,7 +25209,7 @@
         <v>0.2630368098159509</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>178</v>
       </c>
@@ -25227,7 +25241,7 @@
         <v>0.60889570552147243</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>178</v>
       </c>
@@ -25259,7 +25273,7 @@
         <v>1.2883435582822085</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>178</v>
       </c>
@@ -25291,7 +25305,7 @@
         <v>1.4808282208588956</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -25323,7 +25337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>178</v>
       </c>
@@ -25355,7 +25369,7 @@
         <v>2.0469596628537028E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>178</v>
       </c>
@@ -25387,7 +25401,7 @@
         <v>4.0337146297411197E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>178</v>
       </c>
@@ -25419,7 +25433,7 @@
         <v>7.8868151715833834E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>178</v>
       </c>
@@ -25451,7 +25465,7 @@
         <v>0.13726670680313063</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>178</v>
       </c>
@@ -25483,7 +25497,7 @@
         <v>0.2366044551475015</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>178</v>
       </c>
@@ -25515,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>178</v>
       </c>
@@ -25547,7 +25561,7 @@
         <v>4.5126353790613718E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>178</v>
       </c>
@@ -25579,7 +25593,7 @@
         <v>1.6245487364620937E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>178</v>
       </c>
@@ -25611,7 +25625,7 @@
         <v>4.4223826714801441E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>178</v>
       </c>
@@ -25643,7 +25657,7 @@
         <v>7.0397111913357402E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>178</v>
       </c>
@@ -25675,7 +25689,7 @@
         <v>0.11281588447653429</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>178</v>
       </c>
@@ -25707,7 +25721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>178</v>
       </c>
@@ -25739,7 +25753,7 @@
         <v>1.5649452269170579E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>178</v>
       </c>
@@ -25771,7 +25785,7 @@
         <v>2.7647365675534691E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>178</v>
       </c>
@@ -25803,7 +25817,7 @@
         <v>5.9989567031820554E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>178</v>
       </c>
@@ -25835,7 +25849,7 @@
         <v>0.13771517996870108</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>178</v>
       </c>
@@ -25867,7 +25881,7 @@
         <v>0.22430881585811163</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>178</v>
       </c>
@@ -25899,7 +25913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>178</v>
       </c>
@@ -25931,7 +25945,7 @@
         <v>5.8522311631309439E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>178</v>
       </c>
@@ -25963,7 +25977,7 @@
         <v>3.511338697878566E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>178</v>
       </c>
@@ -25995,7 +26009,7 @@
         <v>6.8032187271397218E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>178</v>
       </c>
@@ -26027,7 +26041,7 @@
         <v>0.13313825896122897</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>178</v>
       </c>
@@ -26059,7 +26073,7 @@
         <v>0.22165325530358448</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>178</v>
       </c>
@@ -26091,7 +26105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>178</v>
       </c>
@@ -26123,7 +26137,7 @@
         <v>8.3449235048678721E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>178</v>
       </c>
@@ -26155,7 +26169,7 @@
         <v>3.1525266573945297E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>178</v>
       </c>
@@ -26187,7 +26201,7 @@
         <v>7.1859063514140009E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>178</v>
       </c>
@@ -26219,7 +26233,7 @@
         <v>0.14325452016689846</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>178</v>
       </c>
@@ -26251,7 +26265,7 @@
         <v>0.22855818266110339</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>178</v>
       </c>
@@ -26283,7 +26297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>178</v>
       </c>
@@ -26315,7 +26329,7 @@
         <v>6.6934404283801874E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>178</v>
       </c>
@@ -26347,7 +26361,7 @@
         <v>3.4805890227576977E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>178</v>
       </c>
@@ -26379,7 +26393,7 @@
         <v>7.0950468540829981E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>178</v>
       </c>
@@ -26411,7 +26425,7 @@
         <v>0.11981258366800536</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>178</v>
       </c>
@@ -26443,7 +26457,7 @@
         <v>0.21954484605087016</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>178</v>
       </c>
@@ -26475,7 +26489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>178</v>
       </c>
@@ -26507,7 +26521,7 @@
         <v>8.4985835694051E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>178</v>
       </c>
@@ -26539,7 +26553,7 @@
         <v>2.9745042492917848E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>178</v>
       </c>
@@ -26571,7 +26585,7 @@
         <v>5.8073654390934842E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>178</v>
       </c>
@@ -26603,7 +26617,7 @@
         <v>0.11473087818696884</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>178</v>
       </c>
@@ -26635,7 +26649,7 @@
         <v>0.18696883852691218</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>178</v>
       </c>
@@ -26668,7 +26682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>178</v>
       </c>
@@ -26701,7 +26715,7 @@
         <v>3.3536585365853661E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>178</v>
       </c>
@@ -26734,7 +26748,7 @@
         <v>0.11432926829268293</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>178</v>
       </c>
@@ -26767,7 +26781,7 @@
         <v>0.2027439024390244</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>178</v>
       </c>
@@ -26800,7 +26814,7 @@
         <v>0.88567073170731703</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>178</v>
       </c>
@@ -26833,7 +26847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>178</v>
       </c>
@@ -26866,7 +26880,7 @@
         <v>0.24771167048054921</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>178</v>
       </c>
@@ -26899,7 +26913,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>178</v>
       </c>
@@ -26932,7 +26946,7 @@
         <v>0.46395881006864986</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>178</v>
       </c>
@@ -26965,7 +26979,7 @@
         <v>1.2259725400457666</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>178</v>
       </c>
@@ -26998,7 +27012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>178</v>
       </c>
@@ -27031,7 +27045,7 @@
         <v>7.7279752704791344E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>178</v>
       </c>
@@ -27064,7 +27078,7 @@
         <v>0.20865533230293662</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>178</v>
       </c>
@@ -27097,7 +27111,7 @@
         <v>0.40984028851107679</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>178</v>
       </c>
@@ -27130,7 +27144,7 @@
         <v>0.78567748583204533</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>178</v>
       </c>
@@ -27163,7 +27177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>178</v>
       </c>
@@ -27196,7 +27210,7 @@
         <v>7.3959938366718034E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>178</v>
       </c>
@@ -27229,7 +27243,7 @@
         <v>0.75500770416024654</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>178</v>
       </c>
@@ -27262,7 +27276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>178</v>
       </c>
@@ -27295,7 +27309,7 @@
         <v>0.32163009404388715</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>178</v>
       </c>
@@ -27328,7 +27342,7 @@
         <v>0.55423197492163012</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>178</v>
       </c>
@@ -27361,7 +27375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>178</v>
       </c>
@@ -27394,7 +27408,7 @@
         <v>7.7941176470588236E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>178</v>
       </c>
@@ -27427,7 +27441,7 @@
         <v>0.16470588235294117</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>178</v>
       </c>
@@ -27460,7 +27474,7 @@
         <v>0.82205882352941173</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>178</v>
       </c>
@@ -27493,7 +27507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>178</v>
       </c>
@@ -27526,7 +27540,7 @@
         <v>5.3411131059245963E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>178</v>
       </c>
@@ -27559,7 +27573,7 @@
         <v>0.16965888689407541</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>178</v>
       </c>
@@ -27592,7 +27606,7 @@
         <v>0.76750448833034113</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>178</v>
       </c>
@@ -27625,7 +27639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>178</v>
       </c>
@@ -27658,7 +27672,7 @@
         <v>0.12105388084500356</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>178</v>
       </c>
@@ -27691,7 +27705,7 @@
         <v>0.30643247092333253</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>178</v>
       </c>
@@ -27724,7 +27738,7 @@
         <v>0.65274151436031336</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>178</v>
       </c>
@@ -27757,7 +27771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>178</v>
       </c>
@@ -27790,7 +27804,7 @@
         <v>3.3536585365853661E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>178</v>
       </c>
@@ -27823,7 +27837,7 @@
         <v>0.11432926829268293</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>178</v>
       </c>
@@ -27856,7 +27870,7 @@
         <v>0.2027439024390244</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>178</v>
       </c>
@@ -27889,7 +27903,7 @@
         <v>0.88567073170731703</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>178</v>
       </c>
@@ -27922,7 +27936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>178</v>
       </c>
@@ -27955,7 +27969,7 @@
         <v>0.24771167048054921</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>178</v>
       </c>
@@ -27988,7 +28002,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>178</v>
       </c>
@@ -28021,7 +28035,7 @@
         <v>0.46395881006864986</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>178</v>
       </c>
@@ -28054,7 +28068,7 @@
         <v>1.2259725400457666</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>178</v>
       </c>
@@ -28086,7 +28100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>178</v>
       </c>
@@ -28118,7 +28132,7 @@
         <v>4.7508690614136782E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>178</v>
       </c>
@@ -28150,7 +28164,7 @@
         <v>7.443028196214771E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>178</v>
       </c>
@@ -28182,7 +28196,7 @@
         <v>0.11846272692159142</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>178</v>
       </c>
@@ -28214,7 +28228,7 @@
         <v>0.15040556199304753</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>178</v>
       </c>
@@ -28246,7 +28260,7 @@
         <v>0.40216299729625365</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>178</v>
       </c>
@@ -28278,7 +28292,7 @@
         <v>0.65237543453070701</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>178</v>
       </c>
@@ -28310,7 +28324,7 @@
         <v>1.6493626882966401</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>178</v>
       </c>
@@ -28342,7 +28356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>178</v>
       </c>
@@ -28374,7 +28388,7 @@
         <v>4.7508690614136782E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>178</v>
       </c>
@@ -28406,7 +28420,7 @@
         <v>7.443028196214771E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>178</v>
       </c>
@@ -28438,7 +28452,7 @@
         <v>0.11846272692159142</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>178</v>
       </c>
@@ -28470,7 +28484,7 @@
         <v>0.15040556199304753</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>178</v>
       </c>
@@ -28502,7 +28516,7 @@
         <v>0.94747006566241831</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>178</v>
       </c>
@@ -28534,7 +28548,7 @@
         <v>0.99393588258014698</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>178</v>
       </c>
@@ -28566,7 +28580,7 @@
         <v>11.835650830436464</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>178</v>
       </c>
@@ -28598,7 +28612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>178</v>
       </c>
@@ -28630,7 +28644,7 @@
         <v>3.7476840154960327E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>178</v>
       </c>
@@ -28662,7 +28676,7 @@
         <v>6.2068384706080552E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>178</v>
       </c>
@@ -28694,7 +28708,7 @@
         <v>7.3100892706754309E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>178</v>
       </c>
@@ -28726,7 +28740,7 @@
         <v>0.13853798214586494</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>178</v>
       </c>
@@ -28758,7 +28772,7 @@
         <v>0.22359777665487643</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>178</v>
       </c>
@@ -28790,7 +28804,7 @@
         <v>0.33674414687552662</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>178</v>
       </c>
@@ -28822,7 +28836,7 @@
         <v>0.49162034697658763</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>178</v>
       </c>
@@ -28854,7 +28868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>178</v>
       </c>
@@ -28886,7 +28900,7 @@
         <v>3.7476840154960327E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>178</v>
       </c>
@@ -28918,7 +28932,7 @@
         <v>6.2068384706080552E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>178</v>
       </c>
@@ -28950,7 +28964,7 @@
         <v>7.3100892706754309E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>178</v>
       </c>
@@ -28982,7 +28996,7 @@
         <v>0.18835270338554846</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>178</v>
       </c>
@@ -29014,7 +29028,7 @@
         <v>0.22359777665487643</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>178</v>
       </c>
@@ -29046,7 +29060,7 @@
         <v>0.71155465723429367</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>178</v>
       </c>
@@ -29078,7 +29092,7 @@
         <v>8.5857335354556188</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>178</v>
       </c>
@@ -29110,7 +29124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>178</v>
       </c>
@@ -29142,7 +29156,7 @@
         <v>3.5588174202035493E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>178</v>
       </c>
@@ -29174,7 +29188,7 @@
         <v>0.12497403586512505</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>178</v>
       </c>
@@ -29206,7 +29220,7 @@
         <v>0.16205082046666225</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>178</v>
       </c>
@@ -29238,7 +29252,7 @@
         <v>0.22287613376722284</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>178</v>
       </c>
@@ -29270,7 +29284,7 @@
         <v>0.26756906459876745</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>178</v>
       </c>
@@ -29302,7 +29316,7 @@
         <v>0.34826559579034833</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>178</v>
       </c>
@@ -29334,7 +29348,7 @@
         <v>0.41390292875441409</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>178</v>
       </c>
@@ -29366,7 +29380,7 @@
         <v>1.572111057259572</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>178</v>
       </c>
@@ -29398,7 +29412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>178</v>
       </c>
@@ -29430,7 +29444,7 @@
         <v>3.5588174202035493E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>178</v>
       </c>
@@ -29462,7 +29476,7 @@
         <v>0.16464723395416483</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -29494,7 +29508,7 @@
         <v>0.20047774008170036</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>178</v>
       </c>
@@ -29526,7 +29540,7 @@
         <v>0.22602644879872588</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>178</v>
       </c>
@@ -29558,7 +29572,7 @@
         <v>0.27684691546077694</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>178</v>
       </c>
@@ -29590,7 +29604,7 @@
         <v>0.80994253271480998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>178</v>
       </c>
@@ -29622,7 +29636,7 @@
         <v>0.86200927785086201</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>178</v>
       </c>
@@ -29654,7 +29668,7 @@
         <v>10.573149622654572</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>178</v>
       </c>
@@ -29686,7 +29700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>178</v>
       </c>
@@ -29718,7 +29732,7 @@
         <v>5.3248136315228968E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>178</v>
       </c>
@@ -29750,7 +29764,7 @@
         <v>1.7749378771742989E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>178</v>
       </c>
@@ -29782,7 +29796,7 @@
         <v>4.7568335108271208E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>178</v>
       </c>
@@ -29814,7 +29828,7 @@
         <v>9.0166844160454382E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>178</v>
       </c>
@@ -29846,7 +29860,7 @@
         <v>0.14731984380546681</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>178</v>
       </c>
@@ -29878,7 +29892,7 @@
         <v>0.23074192403265886</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>178</v>
       </c>
@@ -29910,7 +29924,7 @@
         <v>0.31380901668441602</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>178</v>
       </c>
@@ -29942,7 +29956,7 @@
         <v>0.36776712815051471</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>178</v>
       </c>
@@ -29974,7 +29988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>178</v>
       </c>
@@ -30006,7 +30020,7 @@
         <v>2.751031636863824E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>178</v>
       </c>
@@ -30038,7 +30052,7 @@
         <v>5.8459422283356263E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>178</v>
       </c>
@@ -30070,7 +30084,7 @@
         <v>9.9724896836313609E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>178</v>
       </c>
@@ -30102,7 +30116,7 @@
         <v>1.7881705639614855E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>178</v>
       </c>
@@ -30134,7 +30148,7 @@
         <v>4.1953232462173314E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>178</v>
       </c>
@@ -30166,7 +30180,7 @@
         <v>0.10557083906464924</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>178</v>
       </c>
@@ -30198,7 +30212,7 @@
         <v>0.16884456671251719</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>178</v>
       </c>
@@ -30230,7 +30244,7 @@
         <v>0.21011004126547456</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>178</v>
       </c>
@@ -30262,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>178</v>
       </c>
@@ -30294,7 +30308,7 @@
         <v>1.7241379310344827E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>178</v>
       </c>
@@ -30326,7 +30340,7 @@
         <v>3.4482758620689655E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>178</v>
       </c>
@@ -30358,7 +30372,7 @@
         <v>5.1724137931034482E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>178</v>
       </c>
@@ -30390,7 +30404,7 @@
         <v>6.8965517241379309E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>178</v>
       </c>
@@ -30422,7 +30436,7 @@
         <v>8.6206896551724137E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>178</v>
       </c>
@@ -30454,7 +30468,7 @@
         <v>1.2068965517241379E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>178</v>
       </c>
@@ -30486,7 +30500,7 @@
         <v>1.810344827586207E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>178</v>
       </c>
@@ -30518,7 +30532,7 @@
         <v>2.9310344827586206E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>178</v>
       </c>
@@ -30550,7 +30564,7 @@
         <v>5.5603448275862069E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>178</v>
       </c>
@@ -30582,7 +30596,7 @@
         <v>0.14870689655172414</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>178</v>
       </c>
@@ -30614,7 +30628,7 @@
         <v>0.2814655172413793</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>178</v>
       </c>
@@ -30646,7 +30660,7 @@
         <v>0.42155172413793102</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>178</v>
       </c>
@@ -30678,7 +30692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>178</v>
       </c>
@@ -30710,7 +30724,7 @@
         <v>1.6956337431114879E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>178</v>
       </c>
@@ -30742,7 +30756,7 @@
         <v>2.967359050445104E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>178</v>
       </c>
@@ -30774,7 +30788,7 @@
         <v>4.6629927935565915E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>178</v>
       </c>
@@ -30806,7 +30820,7 @@
         <v>6.3586265366680798E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>178</v>
       </c>
@@ -30838,7 +30852,7 @@
         <v>8.4781687155574392E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>178</v>
       </c>
@@ -30870,7 +30884,7 @@
         <v>1.0597710894446799E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>178</v>
       </c>
@@ -30902,7 +30916,7 @@
         <v>1.271725307333616E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>178</v>
       </c>
@@ -30934,7 +30948,7 @@
         <v>1.6108520559559136E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>178</v>
       </c>
@@ -30966,7 +30980,7 @@
         <v>2.3314963967782959E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>178</v>
       </c>
@@ -30998,7 +31012,7 @@
         <v>7.5879610004239081E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>178</v>
       </c>
@@ -31030,7 +31044,7 @@
         <v>0.16659601526070369</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>178</v>
       </c>
@@ -31062,7 +31076,7 @@
         <v>0.26409495548961426</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>178</v>
       </c>
@@ -31094,7 +31108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>178</v>
       </c>
@@ -31126,7 +31140,7 @@
         <v>1.083815028901734E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>178</v>
       </c>
@@ -31158,7 +31172,7 @@
         <v>1.8063583815028901E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>178</v>
       </c>
@@ -31190,7 +31204,7 @@
         <v>2.8901734104046241E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>178</v>
       </c>
@@ -31222,7 +31236,7 @@
         <v>4.6965317919075147E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>178</v>
       </c>
@@ -31254,7 +31268,7 @@
         <v>6.5028901734104048E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>178</v>
       </c>
@@ -31286,7 +31300,7 @@
         <v>8.3092485549132941E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>178</v>
       </c>
@@ -31318,7 +31332,7 @@
         <v>1.0115606936416185E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>178</v>
       </c>
@@ -31350,7 +31364,7 @@
         <v>1.1921965317919074E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>178</v>
       </c>
@@ -31382,7 +31396,7 @@
         <v>1.625722543352601E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>178</v>
       </c>
@@ -31414,7 +31428,7 @@
         <v>2.3121387283236993E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>178</v>
       </c>
@@ -31446,7 +31460,7 @@
         <v>3.1791907514450865E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>178</v>
       </c>
@@ -31478,7 +31492,7 @@
         <v>6.7196531791907516E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>178</v>
       </c>
@@ -31510,7 +31524,7 @@
         <v>0.15209537572254336</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>178</v>
       </c>
@@ -31542,7 +31556,7 @@
         <v>0.34284682080924855</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>178</v>
       </c>
@@ -31574,7 +31588,7 @@
         <v>0.49205202312138729</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>178</v>
       </c>
@@ -31606,7 +31620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>178</v>
       </c>
@@ -31638,7 +31652,7 @@
         <v>3.4317089910775565E-4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>178</v>
       </c>
@@ -31670,7 +31684,7 @@
         <v>6.863417982155113E-4</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>178</v>
       </c>
@@ -31702,7 +31716,7 @@
         <v>1.0295126973232671E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>178</v>
       </c>
@@ -31734,7 +31748,7 @@
         <v>1.7158544955387784E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>178</v>
       </c>
@@ -31766,7 +31780,7 @@
         <v>3.0885380919698007E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>178</v>
       </c>
@@ -31798,7 +31812,7 @@
         <v>4.8043925875085793E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>178</v>
       </c>
@@ -31830,7 +31844,7 @@
         <v>6.1770761839396015E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>178</v>
       </c>
@@ -31862,7 +31876,7 @@
         <v>7.8929306794783809E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>178</v>
       </c>
@@ -31894,7 +31908,7 @@
         <v>9.9519560741249142E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>178</v>
       </c>
@@ -31926,7 +31940,7 @@
         <v>1.3040494166094716E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>178</v>
       </c>
@@ -31958,7 +31972,7 @@
         <v>1.8188057652711049E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>178</v>
       </c>
@@ -31990,7 +32004,7 @@
         <v>2.5394646533973921E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>178</v>
       </c>
@@ -32022,7 +32036,7 @@
         <v>5.2161976664378863E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>178</v>
       </c>
@@ -32054,7 +32068,7 @@
         <v>0.17810569663692519</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>178</v>
       </c>
@@ -32086,7 +32100,7 @@
         <v>0.29203843514070005</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>178</v>
       </c>
@@ -32118,7 +32132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>178</v>
       </c>
@@ -32150,7 +32164,7 @@
         <v>4.1356492969396195E-4</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>178</v>
       </c>
@@ -32182,7 +32196,7 @@
         <v>8.271298593879239E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>178</v>
       </c>
@@ -32214,7 +32228,7 @@
         <v>1.6542597187758478E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>178</v>
       </c>
@@ -32246,7 +32260,7 @@
         <v>2.0678246484698098E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>178</v>
       </c>
@@ -32278,7 +32292,7 @@
         <v>2.8949545078577337E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>178</v>
       </c>
@@ -32310,7 +32324,7 @@
         <v>4.5492142266335819E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>178</v>
       </c>
@@ -32342,7 +32356,7 @@
         <v>6.6170388751033912E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>178</v>
       </c>
@@ -32374,7 +32388,7 @@
         <v>9.5119933829611245E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
         <v>178</v>
       </c>
@@ -32406,7 +32420,7 @@
         <v>1.488833746898263E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
         <v>178</v>
       </c>
@@ -32438,7 +32452,7 @@
         <v>2.0264681555004136E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>178</v>
       </c>
@@ -32470,7 +32484,7 @@
         <v>3.0190239867659223E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>178</v>
       </c>
@@ -32502,7 +32516,7 @@
         <v>4.9627791563275438E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>178</v>
       </c>
@@ -32534,7 +32548,7 @@
         <v>0.34408602150537637</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>178</v>
       </c>
@@ -32566,7 +32580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
         <v>178</v>
       </c>
@@ -32598,7 +32612,7 @@
         <v>3.9401103230890468E-4</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
         <v>178</v>
       </c>
@@ -32630,7 +32644,7 @@
         <v>7.8802206461780935E-4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
         <v>178</v>
       </c>
@@ -32662,7 +32676,7 @@
         <v>1.1820330969267139E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
         <v>178</v>
       </c>
@@ -32694,7 +32708,7 @@
         <v>1.5760441292356187E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
         <v>178</v>
       </c>
@@ -32726,7 +32740,7 @@
         <v>1.9700551615445231E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
         <v>178</v>
       </c>
@@ -32758,7 +32772,7 @@
         <v>2.3640661938534278E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>178</v>
       </c>
@@ -32790,7 +32804,7 @@
         <v>3.5460992907801418E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>178</v>
       </c>
@@ -32822,7 +32836,7 @@
         <v>5.5161544523246652E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>178</v>
       </c>
@@ -32854,7 +32868,7 @@
         <v>9.0622537431048061E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>178</v>
       </c>
@@ -32886,7 +32900,7 @@
         <v>1.3002364066193853E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>178</v>
       </c>
@@ -32918,7 +32932,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>178</v>
       </c>
@@ -32950,7 +32964,7 @@
         <v>2.955082742316785E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
         <v>178</v>
       </c>
@@ -32988,20 +33002,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
         <v>80</v>
       </c>
@@ -33018,7 +33032,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>250</v>
       </c>
@@ -33031,7 +33045,7 @@
         <v>-1.5119773806600256</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>251</v>
       </c>
@@ -33044,7 +33058,7 @@
         <v>-0.61728639284403808</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>252</v>
       </c>
@@ -33057,7 +33071,7 @@
         <v>-1.0646318867520319</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>253</v>
       </c>
@@ -33071,7 +33085,7 @@
       </c>
       <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>254</v>
       </c>
@@ -33084,7 +33098,7 @@
         <v>-0.43470948194668724</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>255</v>
       </c>
@@ -33103,7 +33117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -33111,16 +33125,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>315</v>
       </c>
       <c r="B1" s="50" t="s">
@@ -33133,7 +33147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>250</v>
       </c>
@@ -33150,7 +33164,7 @@
         <v>-1.5119773806600256</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>251</v>
       </c>
@@ -33167,7 +33181,7 @@
         <v>-0.61728639284403808</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>252</v>
       </c>
@@ -33184,7 +33198,7 @@
         <v>-1.0646318867520319</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
         <v>253</v>
       </c>
@@ -33201,7 +33215,7 @@
         <v>-0.48017747931496696</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>254</v>
       </c>
@@ -33218,7 +33232,7 @@
         <v>-0.43470948194668724</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>255</v>
       </c>

--- a/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
+++ b/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/bldgs/eocpweu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/eocpweu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59DD87A-6B92-CF4D-91D0-EF0089F00AF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE031085-3E1B-B24A-93FE-751450D8D3D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25340" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1435,10 +1435,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1789,7 +1789,7 @@
       <c r="A1" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="55">
+      <c r="C1" s="56">
         <v>44307</v>
       </c>
     </row>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
@@ -2184,13 +2184,13 @@
     <row r="44" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
